--- a/rcads/data/xls/94_RoleTypes.xlsx
+++ b/rcads/data/xls/94_RoleTypes.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_94_RoleTypes"/>
   </sheets>
   <definedNames>
-    <definedName name="_94_RoleTypes">'_94_RoleTypes'!$A$1:$D$4</definedName>
+    <definedName name="_94_RoleTypes">'_94_RoleTypes'!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -433,6 +433,66 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Field-Expert Reviewer</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>[Non-translator] Reviewer who has expertise in subject matter (clinical psychological assessment of youth)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Test-Expert Reviewer</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>[Non-translator] Reviewer who has expertise in test development</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Editor</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Editor</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>[Non-translator] Individual who alters the formatting or length of the instrument without altering content.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
